--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>887715.4499497754</v>
+        <v>885827.8684333734</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>53.41215225123364</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>387.2518937643147</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>51.30079766335525</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>37.83808333974883</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>299.9748228912467</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>228.1868322256039</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>67.00090002953</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>45.15939909649906</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>128.1717251095332</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>27.61772289479727</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,16 +1190,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>41.03250833503017</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>7.511689643934864</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>106.7061843359088</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1579,13 +1579,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.2179881267004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>155.8666995316637</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>109.9674473915272</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -2002,22 +2002,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>107.0005394720271</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>13.11471974987657</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>148.7416974947218</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>52.94876677773228</v>
       </c>
       <c r="U25" t="n">
-        <v>3.726532309043449</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>114.8528101945935</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>179.0556349746126</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571497</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523567</v>
+        <v>54.76109577523578</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>141.4025157566404</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>151.838918028641</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3554,7 +3554,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1540.97540443929</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C2" t="n">
-        <v>1172.012887498878</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D2" t="n">
-        <v>1172.012887498878</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>786.2246349006341</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V2" t="n">
-        <v>2267.209817970484</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W2" t="n">
-        <v>1914.44116270037</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="X2" t="n">
-        <v>1540.97540443929</v>
+        <v>1838.715370239898</v>
       </c>
       <c r="Y2" t="n">
-        <v>1540.97540443929</v>
+        <v>1448.576038264086</v>
       </c>
     </row>
     <row r="3">
@@ -4404,46 +4404,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252.6519168570175</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005476</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005476</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="Y4" t="n">
-        <v>252.6519168570175</v>
+        <v>689.9086980046678</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1176.081332301712</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="C5" t="n">
-        <v>1176.081332301712</v>
+        <v>1513.092286283102</v>
       </c>
       <c r="D5" t="n">
-        <v>1176.081332301712</v>
+        <v>1513.092286283102</v>
       </c>
       <c r="E5" t="n">
-        <v>1176.081332301712</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>765.0954275121042</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1936.146930626913</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1562.681172365833</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y5" t="n">
-        <v>1562.681172365833</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4656,37 +4656,37 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.3069090307627</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3069090307627</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3069090307627</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3069090307627</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3069090307627</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3069090307627</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5585364632928</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610024</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610024</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610024</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610024</v>
+        <v>336.2769833124028</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1075.055971578408</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C8" t="n">
-        <v>1075.055971578408</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="D8" t="n">
-        <v>1075.055971578408</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="E8" t="n">
-        <v>1075.055971578408</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="F8" t="n">
-        <v>664.0700667888004</v>
+        <v>826.9981996788993</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>409.0343915770861</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>81.83967161308897</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>1465.19530355422</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y8" t="n">
-        <v>1075.055971578408</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>720.5414189095305</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>493.2332315781322</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5030,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5060,7 +5060,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>804.0893717830343</v>
+        <v>804.0652204802074</v>
       </c>
       <c r="C13" t="n">
-        <v>804.0893717830343</v>
+        <v>635.1290375523005</v>
       </c>
       <c r="D13" t="n">
-        <v>653.9727323706985</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150549</v>
+        <v>985.7136853104471</v>
       </c>
       <c r="X13" t="n">
-        <v>954.8146123150549</v>
+        <v>985.7136853104471</v>
       </c>
       <c r="Y13" t="n">
-        <v>804.0893717830343</v>
+        <v>985.7136853104471</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.9798268587604</v>
+        <v>699.5778825909694</v>
       </c>
       <c r="C16" t="n">
-        <v>527.0436439308535</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>376.9270045185177</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185177</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5467,19 +5467,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.499100520942</v>
+        <v>920.3704617344995</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.42087083253</v>
+        <v>920.3704617344995</v>
       </c>
       <c r="Y16" t="n">
-        <v>877.6282916890001</v>
+        <v>699.5778825909694</v>
       </c>
     </row>
     <row r="17">
@@ -5495,31 +5495,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5595,19 +5595,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507006</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.678268171039</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>395.2468244550147</v>
+        <v>713.5778697504956</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>623.236375353032</v>
+        <v>954.8146123150549</v>
       </c>
       <c r="X19" t="n">
-        <v>395.2468244550147</v>
+        <v>726.8250614170375</v>
       </c>
       <c r="Y19" t="n">
-        <v>395.2468244550147</v>
+        <v>713.5778697504956</v>
       </c>
     </row>
     <row r="20">
@@ -5753,16 +5753,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,22 +5829,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>542.1367719529251</v>
+        <v>579.0685056491542</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>410.1323227212473</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>410.1323227212473</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>410.1323227212473</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>410.1323227212473</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9570010410681</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5917,13 +5917,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5938,22 +5938,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1348.672131674345</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1059.543492887903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>1059.543492887903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>770.1263228509424</v>
+        <v>1209.499100520941</v>
       </c>
       <c r="X22" t="n">
-        <v>542.1367719529251</v>
+        <v>981.5095496229241</v>
       </c>
       <c r="Y22" t="n">
-        <v>542.1367719529251</v>
+        <v>760.7169704793939</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028559</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>527.3450129705748</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C25" t="n">
-        <v>527.3450129705748</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D25" t="n">
-        <v>527.3450129705748</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705748</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705748</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6151,7 +6151,7 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6175,22 +6175,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1245.512657667665</v>
       </c>
       <c r="U25" t="n">
-        <v>1071.446671213422</v>
+        <v>956.384018881223</v>
       </c>
       <c r="V25" t="n">
-        <v>816.7621830075353</v>
+        <v>701.6995306753362</v>
       </c>
       <c r="W25" t="n">
-        <v>527.3450129705748</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="X25" t="n">
-        <v>527.3450129705748</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="Y25" t="n">
-        <v>527.3450129705748</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,67 +6209,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,25 +6291,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643586</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>394.223678370532</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V28" t="n">
-        <v>1020.446367141521</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="W28" t="n">
-        <v>731.0291971045607</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X28" t="n">
-        <v>731.0291971045607</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y28" t="n">
-        <v>510.2366179610304</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="29">
@@ -6452,16 +6452,16 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6479,7 +6479,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.1010933248433</v>
+        <v>451.1914993430019</v>
       </c>
       <c r="C31" t="n">
-        <v>581.9257756783072</v>
+        <v>451.1914993430019</v>
       </c>
       <c r="D31" t="n">
-        <v>487.5700015473423</v>
+        <v>451.1914993430019</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463201</v>
+        <v>451.1914993430019</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297802</v>
+        <v>360.0624171264623</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309717</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1425.797306170464</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1226.873683245948</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>993.2173784903586</v>
+        <v>902.6804289818922</v>
       </c>
       <c r="X31" t="n">
-        <v>820.9886928737121</v>
+        <v>730.4517433652455</v>
       </c>
       <c r="Y31" t="n">
-        <v>820.9886928737121</v>
+        <v>577.0790988918708</v>
       </c>
     </row>
     <row r="32">
@@ -6695,10 +6695,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514082</v>
@@ -6716,13 +6716,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,25 +6765,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,13 +6877,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6950,13 +6950,13 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
@@ -7099,19 +7099,19 @@
         <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384657</v>
@@ -7120,7 +7120,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,25 +7163,25 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7193,10 +7193,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,7 +7327,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7427,34 +7427,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7634,43 +7634,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7731,19 +7731,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2205.048458376741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2410.070939158951</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L46" t="n">
         <v>709.848946864969</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9243,22 +9243,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>127.6461250100647</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>41.90928868230358</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>69.36666522539437</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>11.38012156696411</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>115.74220799751</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,22 +23941,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>179.5224588645639</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>205.4699336022182</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>5.62131788256167</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,10 +24178,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>72.80586356366743</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>168.598794280657</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5108200895339</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.97916998734379</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>107.4673633619783</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571486</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>89.63158001337985</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>11.54247869489677</v>
       </c>
     </row>
     <row r="32">
@@ -26314,13 +26314,13 @@
         <v>389994.8406855345</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="D2" t="n">
         <v>389994.8406855344</v>
       </c>
       <c r="E2" t="n">
-        <v>371477.6067508235</v>
+        <v>371477.6067508236</v>
       </c>
       <c r="F2" t="n">
         <v>371477.6067508236</v>
@@ -26335,25 +26335,25 @@
         <v>371477.6067508236</v>
       </c>
       <c r="J2" t="n">
-        <v>371477.6067508236</v>
+        <v>371477.6067508237</v>
       </c>
       <c r="K2" t="n">
         <v>386481.0304780068</v>
       </c>
       <c r="L2" t="n">
+        <v>389994.8406855349</v>
+      </c>
+      <c r="M2" t="n">
         <v>389994.8406855348</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>389994.8406855349</v>
       </c>
-      <c r="N2" t="n">
-        <v>389994.8406855348</v>
-      </c>
       <c r="O2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855347</v>
       </c>
       <c r="P2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855347</v>
       </c>
     </row>
     <row r="3">
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284562</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086681</v>
+        <v>10342.90680086692</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284563</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007478</v>
+        <v>7916.731656007497</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007497</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007492</v>
+        <v>7916.731656007501</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007546</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020404</v>
+        <v>26081.35417020401</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732803</v>
       </c>
       <c r="M4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732794</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26522,43 +26522,43 @@
         <v>-430749.1653083403</v>
       </c>
       <c r="C6" t="n">
-        <v>159218.7139062041</v>
+        <v>159218.7139062042</v>
       </c>
       <c r="D6" t="n">
         <v>159218.7139062041</v>
       </c>
       <c r="E6" t="n">
-        <v>-253586.4873307967</v>
+        <v>-253683.9464567688</v>
       </c>
       <c r="F6" t="n">
-        <v>271573.5491460995</v>
+        <v>271476.0900201273</v>
       </c>
       <c r="G6" t="n">
-        <v>271573.5491460995</v>
+        <v>271476.0900201273</v>
       </c>
       <c r="H6" t="n">
-        <v>271573.5491460994</v>
+        <v>271476.0900201272</v>
       </c>
       <c r="I6" t="n">
-        <v>271573.5491460995</v>
+        <v>271476.0900201273</v>
       </c>
       <c r="J6" t="n">
-        <v>95150.32995350665</v>
+        <v>95052.87082753459</v>
       </c>
       <c r="K6" t="n">
-        <v>219608.8624747343</v>
+        <v>219590.3687368</v>
       </c>
       <c r="L6" t="n">
-        <v>251601.3091673146</v>
+        <v>251601.3091673145</v>
       </c>
       <c r="M6" t="n">
-        <v>127143.2007343443</v>
+        <v>127143.2007343441</v>
       </c>
       <c r="N6" t="n">
-        <v>261944.2159681814</v>
+        <v>261944.2159681816</v>
       </c>
       <c r="O6" t="n">
-        <v>261944.2159681814</v>
+        <v>261944.2159681813</v>
       </c>
       <c r="P6" t="n">
         <v>217781.6106653357</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108352</v>
+        <v>12.92863350108365</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>329.3216894122469</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>19.62415197739671</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>115.9460234352726</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>187.1970221183354</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>81.95554718101505</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>185.5973377951911</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>112.8310801524073</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>89.80622269583917</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>285.6124449112618</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>124.313593350064</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>138.7994718469071</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28059,13 +28059,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>204.633849306084</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28849,13 +28849,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>460.8305752819984</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>88.01303278507413</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36215,7 +36215,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37318,7 +37318,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>215.6591577951388</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520614</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
